--- a/API/wwwroot/docs/HangHoaDichVu/BANG_KE_HANG_HOA_DICH_VU.xlsx
+++ b/API/wwwroot/docs/HangHoaDichVu/BANG_KE_HANG_HOA_DICH_VU.xlsx
@@ -195,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -226,6 +226,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,7 +541,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +606,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="13"/>
     </row>
